--- a/test_files/input_data/raw_files/AUS.xlsx
+++ b/test_files/input_data/raw_files/AUS.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
   <si>
     <t xml:space="preserve">Unique ID</t>
   </si>
@@ -165,7 +165,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="A1:B4"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -261,13 +261,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:B4"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.34"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -276,6 +280,12 @@
       <c r="B1" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="C1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
@@ -284,6 +294,12 @@
       <c r="B2" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="C2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>44692</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
@@ -292,6 +308,12 @@
       <c r="B3" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="C3" s="1" t="n">
+        <v>35777</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
@@ -299,6 +321,12 @@
       </c>
       <c r="B4" s="0" t="s">
         <v>12</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>35866</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>44632</v>
       </c>
     </row>
   </sheetData>
